--- a/medicine/Autisme/Crazy_in_Love_(film)/Crazy_in_Love_(film).xlsx
+++ b/medicine/Autisme/Crazy_in_Love_(film)/Crazy_in_Love_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crazy in Love, ou Mozart et la baleine au Québec (Mozart and the Whale) est un film américain de Petter Næss, qui s'inspire de l'histoire de Mary et Jerry Newport, tous deux atteints du syndrome d'Asperger, qui malgré leurs difficultés développent une histoire d'amour.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le film, Donald, un conducteur de taxi, a un don pour les chiffres. Se sentant très seul, il fonde un groupe d'autistes. Un jour une fille nouvelle, Isabelle, coiffeuse douée pour la musique et l'art, entre dans le groupe. Toute sa vie change. Ils apprennent à se connaître et aiment tous les deux les animaux, spécifiquement des oiseaux. Une affinité se developpe entre lui et Isabelle.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Mozart and the Whale
 Titre français : Crazy in Love
@@ -602,7 +618,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Josh Hartnett (VF : Emmanuel Garijo ; VQ : Martin Watier) : Donald Morton
 Radha Mitchell (VF : Virginie Ledieu ; VQ : Camille Cyr-Desmarais) : Isabelle Sorenson
@@ -612,8 +630,8 @@
 John Carroll Lynch (VQ : Yves Soutière) : Gregory
 Nate Mooney (VF : Laurent Morteau ; VQ : Nicolas Charbonneaux-Collombet) : Roger
 Allen Evangelista : Skeets
- Source et légende : version française (VF) sur RS Doublage[1] et selon le carton du doublage sur le DVD zone 2
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[2]</t>
+ Source et légende : version française (VF) sur RS Doublage et selon le carton du doublage sur le DVD zone 2
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
